--- a/data_processed/20250728/BTCUSDQMOMENT_20250728.xlsx
+++ b/data_processed/20250728/BTCUSDQMOMENT_20250728.xlsx
@@ -1194,10 +1194,18 @@
       <c r="H20" t="n">
         <v>6.905867621175205</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>-0.2740522758812225</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.1449114456359877</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.1370723824103108</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.068287258175172</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250728/BTCUSDQMOMENT_20250728.xlsx
+++ b/data_processed/20250728/BTCUSDQMOMENT_20250728.xlsx
@@ -524,10 +524,18 @@
       <c r="H2" t="n">
         <v>14.0800696939362</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>-0.4340006244244006</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.2311415746764876</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.2338051555780229</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.70624499875677</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">

--- a/data_processed/20250728/BTCUSDQMOMENT_20250728.xlsx
+++ b/data_processed/20250728/BTCUSDQMOMENT_20250728.xlsx
@@ -552,19 +552,19 @@
         <v>0.1643835616438356</v>
       </c>
       <c r="D3" t="n">
-        <v>119740.7290301633</v>
+        <v>119752.2188536679</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0109131270094229</v>
+        <v>-0.01011729461075268</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2264266183856576</v>
+        <v>0.2202714586791192</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.541239116060919</v>
+        <v>-1.163088336028754</v>
       </c>
       <c r="H3" t="n">
-        <v>17.21340853267968</v>
+        <v>11.16982911953582</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -586,19 +586,19 @@
         <v>0.2602739726027397</v>
       </c>
       <c r="D4" t="n">
-        <v>120604.1043362819</v>
+        <v>120604.0864605543</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.01950928786878335</v>
+        <v>-0.01955736144096514</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2527456329374896</v>
+        <v>0.2532773235655477</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.532758227669497</v>
+        <v>-1.558699261657695</v>
       </c>
       <c r="H4" t="n">
-        <v>13.82522999348076</v>
+        <v>14.16771763371706</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -620,19 +620,19 @@
         <v>0.336986301369863</v>
       </c>
       <c r="D5" t="n">
-        <v>121443.2254771296</v>
+        <v>121390.320190742</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.01832214767571912</v>
+        <v>-0.02124510350304856</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2260353923107839</v>
+        <v>0.2397519317040472</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3126271371575409</v>
+        <v>-0.7043761502860133</v>
       </c>
       <c r="H5" t="n">
-        <v>5.314815160337378</v>
+        <v>7.812699049623616</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -654,19 +654,19 @@
         <v>0.4136986301369863</v>
       </c>
       <c r="D6" t="n">
-        <v>121896.4475300502</v>
+        <v>121902.7993294967</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.03467901137689704</v>
+        <v>-0.03264548407403056</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2927135834728443</v>
+        <v>0.2718449549411772</v>
       </c>
       <c r="G6" t="n">
-        <v>-2.065332213646661</v>
+        <v>-1.149960921263174</v>
       </c>
       <c r="H6" t="n">
-        <v>22.8417703378294</v>
+        <v>10.10687342162665</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -722,19 +722,19 @@
         <v>0.8356164383561644</v>
       </c>
       <c r="D8" t="n">
-        <v>123558.1488361503</v>
+        <v>123570.6245224911</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.05021483012988037</v>
+        <v>-0.04768347842864261</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2435906637496636</v>
+        <v>0.2263875357639576</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.521150450365214</v>
+        <v>-0.8810990765944922</v>
       </c>
       <c r="H8" t="n">
-        <v>13.18531372644899</v>
+        <v>6.939560630134887</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -790,19 +790,19 @@
         <v>1.161643835616438</v>
       </c>
       <c r="D10" t="n">
-        <v>126390.0855360603</v>
+        <v>126384.7604277703</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1124784421622367</v>
+        <v>-0.1145507063135969</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4263474122690276</v>
+        <v>0.441096196145863</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.761442756181937</v>
+        <v>-1.938185720727088</v>
       </c>
       <c r="H10" t="n">
-        <v>8.493979298203369</v>
+        <v>9.944337269473078</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -824,19 +824,19 @@
         <v>1.408219178082192</v>
       </c>
       <c r="D11" t="n">
-        <v>132245.3380939041</v>
+        <v>128480.9794569601</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.09053244557411888</v>
+        <v>-0.1920957381181317</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4170268642661341</v>
+        <v>0.7791410834716266</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.751217024304111</v>
+        <v>-2.646234149017586</v>
       </c>
       <c r="H11" t="n">
-        <v>7.732963397424648</v>
+        <v>13.02800252663572</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -858,19 +858,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D12" t="n">
-        <v>119006.1943433512</v>
+        <v>119048.6234017637</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03659640138995129</v>
+        <v>0.04062706907592137</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1827207936109888</v>
+        <v>0.1562518471311289</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.668970089185716</v>
+        <v>-1.089849091793474</v>
       </c>
       <c r="H12" t="n">
-        <v>30.81883783658965</v>
+        <v>12.31632432045555</v>
       </c>
       <c r="I12" t="n">
         <v>-0.36493601483118</v>
@@ -978,19 +978,19 @@
         <v>0.005479452054794521</v>
       </c>
       <c r="D15" t="n">
-        <v>118997.5988260638</v>
+        <v>119011.8400046647</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08502846462394587</v>
+        <v>0.08719352372954203</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1424982047628512</v>
+        <v>0.1252996970048831</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.156750860811258</v>
+        <v>-0.1107008630014937</v>
       </c>
       <c r="H15" t="n">
-        <v>38.38566351736554</v>
+        <v>4.691178673692739</v>
       </c>
       <c r="I15" t="n">
         <v>-0.01652842029077395</v>
@@ -1062,19 +1062,19 @@
         <v>0.01095890410958904</v>
       </c>
       <c r="D17" t="n">
-        <v>118977.3445886256</v>
+        <v>118976.228795658</v>
       </c>
       <c r="E17" t="n">
-        <v>0.05372427353275371</v>
+        <v>0.0536154588118516</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1641529738464737</v>
+        <v>0.1645618851359608</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.666203178105032</v>
+        <v>-1.682696326551386</v>
       </c>
       <c r="H17" t="n">
-        <v>15.66712267724905</v>
+        <v>15.80779403450412</v>
       </c>
       <c r="I17" t="n">
         <v>-0.1285540295714523</v>
@@ -1146,19 +1146,19 @@
         <v>0.04931506849315068</v>
       </c>
       <c r="D19" t="n">
-        <v>119045.1983271069</v>
+        <v>119054.8228035294</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01445038566251031</v>
+        <v>0.01508357598063807</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1629366295093631</v>
+        <v>0.1598502418917181</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.182340485373245</v>
+        <v>-1.050369021455628</v>
       </c>
       <c r="H19" t="n">
-        <v>11.27180177218278</v>
+        <v>10.31880630607952</v>
       </c>
       <c r="I19" t="n">
         <v>-0.2010816727490923</v>

--- a/data_processed/20250728/BTCUSDQMOMENT_20250728.xlsx
+++ b/data_processed/20250728/BTCUSDQMOMENT_20250728.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>11.16982911953582</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-0.6357168640050579</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2584225421891048</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.06768018358516506</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.485282303055119</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">

--- a/data_processed/20250728/BTCUSDQMOMENT_20250728.xlsx
+++ b/data_processed/20250728/BTCUSDQMOMENT_20250728.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>14.16771763371706</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>-0.6627369299571171</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.457686881153907</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.3379598144967776</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.720457785699356</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
